--- a/INTLINE/data/144/SCB/old/SnabbStatAM0401.xlsx
+++ b/INTLINE/data/144/SCB/old/SnabbStatAM0401.xlsx
@@ -13,29 +13,31 @@
 </x:workbook>
 </file>
 
-<file path=xl/comments.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:comments xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:authors>
     <x:author>www.statistikdatabasen.scb.se</x:author>
   </x:authors>
   <x:commentList>
-    <x:comment ref="DD3" authorId="0">
+    <x:comment ref="DG3" authorId="0">
       <x:text>
         <x:r>
           <x:rPr>
             <x:vertAlign val="baseline"/>
-            <x:sz val="8"/>
+            <x:sz val="9"/>
             <x:color rgb="FF000000"/>
             <x:rFont val="Tahoma"/>
             <x:family val="2"/>
           </x:rPr>
-          <x:t xml:space="preserve">Employment continues to increase
-Since 1 January, the Swedish LFS is in compliance with the new EU framework regulation on social statistics (Regulation (EU) 2019/1700 of the European Parliament and of the Council). This framework regulation has involved changes in the definition of employment, the sampling procedure, and the structure of the questionnaire. These changes have caused breaks in the time series and therefore, this item of statistical news does not include any comparisons with previous years. Comparisons with previous months in 2021 are possible for seasonally adjusted and smoothed data. However, comparisons with previous years are not advised. Throughout 2021, parallel measurements will be used to make it possible to link data backwards in time and make the series comparable with previous years. The number of employed persons has been affected, partly due to the change in the definition; people who are completely absent from work for three months or more for certain reasons are no longer classified as being employed. Furthermore, new and updated information is used in the weighting procedures, which improves the precision in the estimates, although it also affects the levels of the number of employed persons. The change in the definition and the new weighting procedure led to a total estimated number of employed persons in November that is 76 000 fewer than according to the previous method. Besides the number of employed persons, other estimates have also been affected by a change in definition, target population, and survey design. The new auxiliary information has also affected the other estimates. More information on the alignment to the framework regulation is available on the LFS product page under “Information on the introduction of the new 2021 framework regulation in the LFS” (scb.se).
-In November 2021, there were 5 523 000 (±59 000) people aged 15–74 years in the labour force, not seasonally adjusted. There were 2 608 000 (±48 000) women and 2 915 000 (±46 000) men in the labour force. The relative labour force participation rate was 73.5 (±0.8) percent. This rate was 70.5 (±1.3) percent for women and 76.3 (±1.2) percent for men. According to seasonally adjusted and smoothed data, there were 5 576 000 people in the labour force and the labour force participation rate was 74.3 percent. Compared with previous months in 2021, seasonally adjusted and smoothed data showed an increase in the labour force participation rate.
-In November 2021, there were 5 109 000 (±57 000) employed people aged 15–74 years, not seasonally adjusted. There were 2 407 000 (±49 000) employed women and 2 702 000 (±48 000) employed men. The employment rate was 67.9 (±0.8) percent. This rate was 65.1 (±1.3) percent for women and 70.7 (±1.2) percent for men. According to seasonally adjusted and smoothed data, there were 5 105 000 employed people and the employment rate was 68.0 percent. Compared with previous months in 2021, seasonally adjusted and smoothed data showed an increase in both the number of employed people and the employment rate.
-In November 2021, there were 4 562 000 (±63 000) employees according to non-seasonally adjusted data. Among employees, there were 2 261 000 (±51 000) women and 2 301 000 (±53 000) men. There were 3 932 000 (±68 000) permanent employees and 629 000 (±53 000) temporary employees. According to seasonally adjusted and smoothed data, there were 4 591 000 employees. There were 3 905 000 permanent employees and 687 000 temporary employees. Compared with previous months in 2021, seasonally adjusted and smoothed data showed an increase in the number of permanent employees and a decrease in the number of temporary employees.
-In November 2021, the average number of hours worked was 165.8 (±2.6) million per week, not seasonally adjusted. Seasonally adjusted and smoothed data showed that the total average number of hours worked per week was 153.5 million, an increase compared with previous months in 2021. Due to the placement of the reference weeks in relation to the autumn holidays, the number of hours worked may be slightly underestimated.
-In November 2021, there were 414 000 (±38 000) unemployed persons aged 15–74 years, which corresponds to an unemployment rate of 7.5 (±0.7) percent, not seasonally adjusted. There were 201 000 (±30 000) unemployed women and 213 000 (±29 000) unemployed men, which corresponds to an unemployment rate of 7.7 (±1.1) percent for women and 7.3 (±1.0) percent for men. Among those who were unemployed, 153 000 (±24 000) had been unemployed for more than six months. In November, there were 471 000 unemployed persons according to seasonally adjusted and smoothed data, which corresponds to an unemployment rate of 8.5 percent. Compared with previous months in 2021, seasonally adjusted and smoothed data showed a decrease in the number and in the proportion of unemployed people.
+          <x:t xml:space="preserve">Continued increase in employment
+ The change in the number of unemployed and in the unemployment rate for women, between February 2021 and February 2022 may be overestimated. This since unemployment was overestimated in February 2021 and underestimated in February 2022. The distribution among non-respondents might explain the possible underestimation in unemployment this month.
+ Since 1 January 2021, the Swedish LFS is in compliance with the new EU framework regulation on social statistics (Regulation (EU) 2019/1700). More information on the alignment to the regulation is available on the LFS product page under “Information on the introduction of the new 2021 framework regulation in the LFS” (scb.se).
+ The changes have caused breaks in the LFS time series. To make the series comparable in time, a selection of series has been linked backwards to 2005 according to the new practise. At the same time as the LFS February, these series are also published for quarters and years. Later this year further series will be published.
+ In February 2022, there were 5 536 000 (±56 000) persons aged 15–74 in the labour force, not seasonally adjusted. The number of women in the labour force was 2 586 000 (±46 000). The number of men was 2 950 000 (±43 000). The relative labour force participation rate was 73.7 (±0.7). Among women, it was 70.0 (±1.2) percent and among men, it was 77.2 (±1.1). Seasonally adjusted and smoothed data shows an increase in both the number and share of persons in the labour force compared with nearby months. The number of persons in the labour force amounted to 5 581 000 persons, corresponding to a labour force participation rate of 74.3.
+ In February 2022, there were 5 101 000 (±52 000) employed persons aged 15-74, not seasonally adjusted, which is an increase of 151 000 compared to the corresponding month a year ago. There were 2 391 000 (±46 000) employed women, an increase of 90 000, and 2 710 000 (±44 000) employed men, an increase of 61 000. The employment rate increased by 2.0 percentage points to 67.9 (±0.7) percent. Among women, the employment rate was 64.7 (±1.2) percent, an increase of 2.4 percentage points. Among men, it was 70.9 (±1.2) percent, an increase of 1.6 percentage points. Smoothed and seasonally adjusted data indicates an increase in both the number and share of employed persons compared with recent months. There were 5 150 000 employed persons, corresponding to an employment rate of 68.6 percent. There were 553 000 (±46 000) people absent for the whole week in February 2022. Compared with previous months, smoothed and seasonally adjusted data shows an increase in the number of people absent for the whole week. The number amounted to 833 000.
+ In February 2022, there were 4 555 000 (±59 000) employees, not seasonally adjusted. This is an increase of 118 000 compared with the corresponding month last year. Among women, there were 2 252 000 (±48 000) employees, an increase of 82 000. Among men, there were 2 303 000 (±49 000) employees. There were 3 903 000 (±64 000) permanent employees in the same period. Among women, there were 1 891 000 (±50 000) permanent employees, an increase of 67 000. The number of permanent employees among men was 2 011 000 (±51 000). There were 652 000 (±50 000) temporary employees. Among them, 361 000 (±38 000) were women and 292 000 (±34 000) were men. For seasonally adjusted and smoothed data, the number of employees was 4 630 000. The corresponding figure for permanent employees was 3 927 000 and for temporary employees 703 000. Compared with previous months, seasonally adjusted and smoothed data shows an increase in the number of employees, and in permanent employees as well as in temporary employees.
+ The average number of hours worked in February 2022 amounted to 164.6 (±2.5) million per week, not seasonally adjusted. Seasonally adjusted and smoothed data shows a decrease in the average number of hours worked per week compared to nearby months. The number amounted to 150.7 million.
+ In February 2022, there were 435 000 (±36 000) unemployed persons aged 15–74 years, not seasonally adjusted. This is a decrease of 96 000 compared with the corresponding month last year. It corresponds to an unemployment rate of 7.9 (±0.6) percent, a decrease of 1.8 percentage points compared to February 2021. Among the unemployed persons, there were 195 000 (±28 000) unemployed women, which is a decrease of 68 000. The number of unemployed men amounted to 240 000 (±29 000). Among women, the unemployment rate was 7.5 (±1.0) percent, a decrease of 2.8 percentage points. Among men, the unemployment rate was 8.1 (±0.9). Among those who were unemployed, 160 000 (±22 000) had been unemployed for more than six months. There were 141 000 (±24 000) unemployed young people aged 15–24 years, corresponding to an unemployment rate of 24.2 (±3.5) percent. Among unemployed young people, 90 000 (±19 000) persons were full-time students. Among persons aged 15–74 years, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. In February 2022 there were 430 000 unemployed persons, which corresponds to an unemployment rate of 7.7 percent. Among young people aged 15–24, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. The number of unemployed young people amounted to 140 000, corresponding to an unemployment rate of 22.4 percent.
 </x:t>
         </x:r>
       </x:text>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <x:si>
     <x:t>Labour Force Surveys (LFS), population aged 15-74. Non seasonally adjusted estimates by economic indicator and month</x:t>
   </x:si>
@@ -371,31 +373,42 @@
     <x:t>2021M11</x:t>
   </x:si>
   <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M02</x:t>
+  </x:si>
+  <x:si>
     <x:t>Unemployment rate, percent</x:t>
   </x:si>
   <x:si>
-    <x:t>As of 1 January 2021, the LFS is carried out in accordance with the new EU framework regulation. The scope of the break in the time series has not yet been determined and comparisons with previous periods are discouraged. Efforts to link the time series are underway and are expected to be completed for some of the most central series by the end of February 2022. &lt;a href="https://www.scb.se/en/finding-statistics/statistics-by-subject-area/labour-market/labour-force-surveys/labour-force-surveys-lfs/"&gt;www.scb.se/aku&lt;/a&gt;</x:t>
+    <x:t>X</x:t>
   </x:si>
   <x:si>
     <x:t>month:</x:t>
   </x:si>
   <x:si>
-    <x:t>2021M11:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Employment continues to increase
-Since 1 January, the Swedish LFS is in compliance with the new EU framework regulation on social statistics (Regulation (EU) 2019/1700 of the European Parliament and of the Council). This framework regulation has involved changes in the definition of employment, the sampling procedure, and the structure of the questionnaire. These changes have caused breaks in the time series and therefore, this item of statistical news does not include any comparisons with previous years. Comparisons with previous months in 2021 are possible for seasonally adjusted and smoothed data. However, comparisons with previous years are not advised. Throughout 2021, parallel measurements will be used to make it possible to link data backwards in time and make the series comparable with previous years. The number of employed persons has been affected, partly due to the change in the definition; people who are completely absent from work for three months or more for certain reasons are no longer classified as being employed. Furthermore, new and updated information is used in the weighting procedures, which improves the precision in the estimates, although it also affects the levels of the number of employed persons. The change in the definition and the new weighting procedure led to a total estimated number of employed persons in November that is 76 000 fewer than according to the previous method. Besides the number of employed persons, other estimates have also been affected by a change in definition, target population, and survey design. The new auxiliary information has also affected the other estimates. More information on the alignment to the framework regulation is available on the LFS product page under “Information on the introduction of the new 2021 framework regulation in the LFS” (scb.se).
-In November 2021, there were 5 523 000 (±59 000) people aged 15–74 years in the labour force, not seasonally adjusted. There were 2 608 000 (±48 000) women and 2 915 000 (±46 000) men in the labour force. The relative labour force participation rate was 73.5 (±0.8) percent. This rate was 70.5 (±1.3) percent for women and 76.3 (±1.2) percent for men. According to seasonally adjusted and smoothed data, there were 5 576 000 people in the labour force and the labour force participation rate was 74.3 percent. Compared with previous months in 2021, seasonally adjusted and smoothed data showed an increase in the labour force participation rate.
-In November 2021, there were 5 109 000 (±57 000) employed people aged 15–74 years, not seasonally adjusted. There were 2 407 000 (±49 000) employed women and 2 702 000 (±48 000) employed men. The employment rate was 67.9 (±0.8) percent. This rate was 65.1 (±1.3) percent for women and 70.7 (±1.2) percent for men. According to seasonally adjusted and smoothed data, there were 5 105 000 employed people and the employment rate was 68.0 percent. Compared with previous months in 2021, seasonally adjusted and smoothed data showed an increase in both the number of employed people and the employment rate.
-In November 2021, there were 4 562 000 (±63 000) employees according to non-seasonally adjusted data. Among employees, there were 2 261 000 (±51 000) women and 2 301 000 (±53 000) men. There were 3 932 000 (±68 000) permanent employees and 629 000 (±53 000) temporary employees. According to seasonally adjusted and smoothed data, there were 4 591 000 employees. There were 3 905 000 permanent employees and 687 000 temporary employees. Compared with previous months in 2021, seasonally adjusted and smoothed data showed an increase in the number of permanent employees and a decrease in the number of temporary employees.
-In November 2021, the average number of hours worked was 165.8 (±2.6) million per week, not seasonally adjusted. Seasonally adjusted and smoothed data showed that the total average number of hours worked per week was 153.5 million, an increase compared with previous months in 2021. Due to the placement of the reference weeks in relation to the autumn holidays, the number of hours worked may be slightly underestimated.
-In November 2021, there were 414 000 (±38 000) unemployed persons aged 15–74 years, which corresponds to an unemployment rate of 7.5 (±0.7) percent, not seasonally adjusted. There were 201 000 (±30 000) unemployed women and 213 000 (±29 000) unemployed men, which corresponds to an unemployment rate of 7.7 (±1.1) percent for women and 7.3 (±1.0) percent for men. Among those who were unemployed, 153 000 (±24 000) had been unemployed for more than six months. In November, there were 471 000 unemployed persons according to seasonally adjusted and smoothed data, which corresponds to an unemployment rate of 8.5 percent. Compared with previous months in 2021, seasonally adjusted and smoothed data showed a decrease in the number and in the proportion of unemployed people.</x:t>
+    <x:t>2022M02:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Continued increase in employment
+ The change in the number of unemployed and in the unemployment rate for women, between February 2021 and February 2022 may be overestimated. This since unemployment was overestimated in February 2021 and underestimated in February 2022. The distribution among non-respondents might explain the possible underestimation in unemployment this month.
+ Since 1 January 2021, the Swedish LFS is in compliance with the new EU framework regulation on social statistics (Regulation (EU) 2019/1700). More information on the alignment to the regulation is available on the LFS product page under “Information on the introduction of the new 2021 framework regulation in the LFS” (scb.se).
+ The changes have caused breaks in the LFS time series. To make the series comparable in time, a selection of series has been linked backwards to 2005 according to the new practise. At the same time as the LFS February, these series are also published for quarters and years. Later this year further series will be published.
+ In February 2022, there were 5 536 000 (±56 000) persons aged 15–74 in the labour force, not seasonally adjusted. The number of women in the labour force was 2 586 000 (±46 000). The number of men was 2 950 000 (±43 000). The relative labour force participation rate was 73.7 (±0.7). Among women, it was 70.0 (±1.2) percent and among men, it was 77.2 (±1.1). Seasonally adjusted and smoothed data shows an increase in both the number and share of persons in the labour force compared with nearby months. The number of persons in the labour force amounted to 5 581 000 persons, corresponding to a labour force participation rate of 74.3.
+ In February 2022, there were 5 101 000 (±52 000) employed persons aged 15-74, not seasonally adjusted, which is an increase of 151 000 compared to the corresponding month a year ago. There were 2 391 000 (±46 000) employed women, an increase of 90 000, and 2 710 000 (±44 000) employed men, an increase of 61 000. The employment rate increased by 2.0 percentage points to 67.9 (±0.7) percent. Among women, the employment rate was 64.7 (±1.2) percent, an increase of 2.4 percentage points. Among men, it was 70.9 (±1.2) percent, an increase of 1.6 percentage points. Smoothed and seasonally adjusted data indicates an increase in both the number and share of employed persons compared with recent months. There were 5 150 000 employed persons, corresponding to an employment rate of 68.6 percent. There were 553 000 (±46 000) people absent for the whole week in February 2022. Compared with previous months, smoothed and seasonally adjusted data shows an increase in the number of people absent for the whole week. The number amounted to 833 000.
+ In February 2022, there were 4 555 000 (±59 000) employees, not seasonally adjusted. This is an increase of 118 000 compared with the corresponding month last year. Among women, there were 2 252 000 (±48 000) employees, an increase of 82 000. Among men, there were 2 303 000 (±49 000) employees. There were 3 903 000 (±64 000) permanent employees in the same period. Among women, there were 1 891 000 (±50 000) permanent employees, an increase of 67 000. The number of permanent employees among men was 2 011 000 (±51 000). There were 652 000 (±50 000) temporary employees. Among them, 361 000 (±38 000) were women and 292 000 (±34 000) were men. For seasonally adjusted and smoothed data, the number of employees was 4 630 000. The corresponding figure for permanent employees was 3 927 000 and for temporary employees 703 000. Compared with previous months, seasonally adjusted and smoothed data shows an increase in the number of employees, and in permanent employees as well as in temporary employees.
+ The average number of hours worked in February 2022 amounted to 164.6 (±2.5) million per week, not seasonally adjusted. Seasonally adjusted and smoothed data shows a decrease in the average number of hours worked per week compared to nearby months. The number amounted to 150.7 million.
+ In February 2022, there were 435 000 (±36 000) unemployed persons aged 15–74 years, not seasonally adjusted. This is a decrease of 96 000 compared with the corresponding month last year. It corresponds to an unemployment rate of 7.9 (±0.6) percent, a decrease of 1.8 percentage points compared to February 2021. Among the unemployed persons, there were 195 000 (±28 000) unemployed women, which is a decrease of 68 000. The number of unemployed men amounted to 240 000 (±29 000). Among women, the unemployment rate was 7.5 (±1.0) percent, a decrease of 2.8 percentage points. Among men, the unemployment rate was 8.1 (±0.9). Among those who were unemployed, 160 000 (±22 000) had been unemployed for more than six months. There were 141 000 (±24 000) unemployed young people aged 15–24 years, corresponding to an unemployment rate of 24.2 (±3.5) percent. Among unemployed young people, 90 000 (±19 000) persons were full-time students. Among persons aged 15–74 years, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. In February 2022 there were 430 000 unemployed persons, which corresponds to an unemployment rate of 7.7 percent. Among young people aged 15–24, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. The number of unemployed young people amounted to 140 000, corresponding to an unemployment rate of 22.4 percent.</x:t>
   </x:si>
   <x:si>
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211216 09:30</x:t>
+    <x:t>20220318 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -455,7 +468,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0.0"/>
+    <x:numFmt numFmtId="165" formatCode="0.0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -509,41 +522,38 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -554,7 +564,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -837,142 +847,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:DG45"/>
+  <x:dimension ref="A1:DJ45"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="108" width="10.840625000000001" style="0" customWidth="1"/>
-    <x:col min="109" max="111" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="114" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:111">
+    <x:row r="1" spans="1:114">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:111">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
-      <x:c r="I2" s="0" t="s"/>
-      <x:c r="J2" s="0" t="s"/>
-      <x:c r="K2" s="0" t="s"/>
-      <x:c r="L2" s="0" t="s"/>
-      <x:c r="M2" s="0" t="s"/>
-      <x:c r="N2" s="0" t="s"/>
-      <x:c r="O2" s="0" t="s"/>
-      <x:c r="P2" s="0" t="s"/>
-      <x:c r="Q2" s="0" t="s"/>
-      <x:c r="R2" s="0" t="s"/>
-      <x:c r="S2" s="0" t="s"/>
-      <x:c r="T2" s="0" t="s"/>
-      <x:c r="U2" s="0" t="s"/>
-      <x:c r="V2" s="0" t="s"/>
-      <x:c r="W2" s="0" t="s"/>
-      <x:c r="X2" s="0" t="s"/>
-      <x:c r="Y2" s="0" t="s"/>
-      <x:c r="Z2" s="0" t="s"/>
-      <x:c r="AA2" s="0" t="s"/>
-      <x:c r="AB2" s="0" t="s"/>
-      <x:c r="AC2" s="0" t="s"/>
-      <x:c r="AD2" s="0" t="s"/>
-      <x:c r="AE2" s="0" t="s"/>
-      <x:c r="AF2" s="0" t="s"/>
-      <x:c r="AG2" s="0" t="s"/>
-      <x:c r="AH2" s="0" t="s"/>
-      <x:c r="AI2" s="0" t="s"/>
-      <x:c r="AJ2" s="0" t="s"/>
-      <x:c r="AK2" s="0" t="s"/>
-      <x:c r="AL2" s="0" t="s"/>
-      <x:c r="AM2" s="0" t="s"/>
-      <x:c r="AN2" s="0" t="s"/>
-      <x:c r="AO2" s="0" t="s"/>
-      <x:c r="AP2" s="0" t="s"/>
-      <x:c r="AQ2" s="0" t="s"/>
-      <x:c r="AR2" s="0" t="s"/>
-      <x:c r="AS2" s="0" t="s"/>
-      <x:c r="AT2" s="0" t="s"/>
-      <x:c r="AU2" s="0" t="s"/>
-      <x:c r="AV2" s="0" t="s"/>
-      <x:c r="AW2" s="0" t="s"/>
-      <x:c r="AX2" s="0" t="s"/>
-      <x:c r="AY2" s="0" t="s"/>
-      <x:c r="AZ2" s="0" t="s"/>
-      <x:c r="BA2" s="0" t="s"/>
-      <x:c r="BB2" s="0" t="s"/>
-      <x:c r="BC2" s="0" t="s"/>
-      <x:c r="BD2" s="0" t="s"/>
-      <x:c r="BE2" s="0" t="s"/>
-      <x:c r="BF2" s="0" t="s"/>
-      <x:c r="BG2" s="0" t="s"/>
-      <x:c r="BH2" s="0" t="s"/>
-      <x:c r="BI2" s="0" t="s"/>
-      <x:c r="BJ2" s="0" t="s"/>
-      <x:c r="BK2" s="0" t="s"/>
-      <x:c r="BL2" s="0" t="s"/>
-      <x:c r="BM2" s="0" t="s"/>
-      <x:c r="BN2" s="0" t="s"/>
-      <x:c r="BO2" s="0" t="s"/>
-      <x:c r="BP2" s="0" t="s"/>
-      <x:c r="BQ2" s="0" t="s"/>
-      <x:c r="BR2" s="0" t="s"/>
-      <x:c r="BS2" s="0" t="s"/>
-      <x:c r="BT2" s="0" t="s"/>
-      <x:c r="BU2" s="0" t="s"/>
-      <x:c r="BV2" s="0" t="s"/>
-      <x:c r="BW2" s="0" t="s"/>
-      <x:c r="BX2" s="0" t="s"/>
-      <x:c r="BY2" s="0" t="s"/>
-      <x:c r="BZ2" s="0" t="s"/>
-      <x:c r="CA2" s="0" t="s"/>
-      <x:c r="CB2" s="0" t="s"/>
-      <x:c r="CC2" s="0" t="s"/>
-      <x:c r="CD2" s="0" t="s"/>
-      <x:c r="CE2" s="0" t="s"/>
-      <x:c r="CF2" s="0" t="s"/>
-      <x:c r="CG2" s="0" t="s"/>
-      <x:c r="CH2" s="0" t="s"/>
-      <x:c r="CI2" s="0" t="s"/>
-      <x:c r="CJ2" s="0" t="s"/>
-      <x:c r="CK2" s="0" t="s"/>
-      <x:c r="CL2" s="0" t="s"/>
-      <x:c r="CM2" s="0" t="s"/>
-      <x:c r="CN2" s="0" t="s"/>
-      <x:c r="CO2" s="0" t="s"/>
-      <x:c r="CP2" s="0" t="s"/>
-      <x:c r="CQ2" s="0" t="s"/>
-      <x:c r="CR2" s="0" t="s"/>
-      <x:c r="CS2" s="0" t="s"/>
-      <x:c r="CT2" s="0" t="s"/>
-      <x:c r="CU2" s="0" t="s"/>
-      <x:c r="CV2" s="0" t="s"/>
-      <x:c r="CW2" s="0" t="s"/>
-      <x:c r="CX2" s="0" t="s"/>
-      <x:c r="CY2" s="0" t="s"/>
-      <x:c r="CZ2" s="0" t="s"/>
-      <x:c r="DA2" s="0" t="s"/>
-      <x:c r="DB2" s="0" t="s"/>
-      <x:c r="DC2" s="0" t="s"/>
-      <x:c r="DD2" s="0" t="s"/>
-      <x:c r="DE2" s="0" t="s"/>
-      <x:c r="DF2" s="0" t="s"/>
-      <x:c r="DG2" s="0" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:111">
-      <x:c r="A3" s="0" t="s"/>
+    <x:row r="3" spans="1:114">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1294,301 +1188,307 @@
       <x:c r="DD3" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="DE3" s="0" t="s"/>
-      <x:c r="DF3" s="0" t="s"/>
-      <x:c r="DG3" s="0" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:111">
+      <x:c r="DE3" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="DF3" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="DG3" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:114">
       <x:c r="A4" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
+        <x:v>8.6</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="n">
+        <x:v>8.7</x:v>
+      </x:c>
+      <x:c r="D4" s="3" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E4" s="3" t="n">
+        <x:v>8.9</x:v>
+      </x:c>
+      <x:c r="F4" s="3" t="n">
         <x:v>8.4</x:v>
       </x:c>
-      <x:c r="C4" s="3" t="n">
+      <x:c r="G4" s="3" t="n">
+        <x:v>9.3</x:v>
+      </x:c>
+      <x:c r="H4" s="3" t="n">
+        <x:v>7.4</x:v>
+      </x:c>
+      <x:c r="I4" s="3" t="n">
+        <x:v>7.5</x:v>
+      </x:c>
+      <x:c r="J4" s="3" t="n">
+        <x:v>7.7</x:v>
+      </x:c>
+      <x:c r="K4" s="3" t="n">
+        <x:v>7.5</x:v>
+      </x:c>
+      <x:c r="L4" s="3" t="n">
+        <x:v>7.7</x:v>
+      </x:c>
+      <x:c r="M4" s="3" t="n">
+        <x:v>7.7</x:v>
+      </x:c>
+      <x:c r="N4" s="3" t="n">
+        <x:v>8.8</x:v>
+      </x:c>
+      <x:c r="O4" s="3" t="n">
+        <x:v>8.7</x:v>
+      </x:c>
+      <x:c r="P4" s="3" t="n">
+        <x:v>8.8</x:v>
+      </x:c>
+      <x:c r="Q4" s="3" t="n">
+        <x:v>8.9</x:v>
+      </x:c>
+      <x:c r="R4" s="3" t="n">
+        <x:v>8.2</x:v>
+      </x:c>
+      <x:c r="S4" s="3" t="n">
+        <x:v>9.3</x:v>
+      </x:c>
+      <x:c r="T4" s="3" t="n">
+        <x:v>7.2</x:v>
+      </x:c>
+      <x:c r="U4" s="3" t="n">
+        <x:v>7.5</x:v>
+      </x:c>
+      <x:c r="V4" s="3" t="n">
+        <x:v>7.4</x:v>
+      </x:c>
+      <x:c r="W4" s="3" t="n">
+        <x:v>7.7</x:v>
+      </x:c>
+      <x:c r="X4" s="3" t="n">
+        <x:v>7.5</x:v>
+      </x:c>
+      <x:c r="Y4" s="3" t="n">
+        <x:v>7.2</x:v>
+      </x:c>
+      <x:c r="Z4" s="3" t="n">
+        <x:v>8.6</x:v>
+      </x:c>
+      <x:c r="AA4" s="3" t="n">
+        <x:v>8.6</x:v>
+      </x:c>
+      <x:c r="AB4" s="3" t="n">
+        <x:v>8.2</x:v>
+      </x:c>
+      <x:c r="AC4" s="3" t="n">
         <x:v>8.5</x:v>
       </x:c>
-      <x:c r="D4" s="3" t="n">
-        <x:v>8.8</x:v>
-      </x:c>
-      <x:c r="E4" s="3" t="n">
+      <x:c r="AD4" s="3" t="n">
+        <x:v>8.2</x:v>
+      </x:c>
+      <x:c r="AE4" s="3" t="n">
         <x:v>8.7</x:v>
       </x:c>
-      <x:c r="F4" s="3" t="n">
-        <x:v>8.2</x:v>
-      </x:c>
-      <x:c r="G4" s="3" t="n">
+      <x:c r="AF4" s="3" t="n">
+        <x:v>6.7</x:v>
+      </x:c>
+      <x:c r="AG4" s="3" t="n">
+        <x:v>6.5</x:v>
+      </x:c>
+      <x:c r="AH4" s="3" t="n">
+        <x:v>6.9</x:v>
+      </x:c>
+      <x:c r="AI4" s="3" t="n">
+        <x:v>6.9</x:v>
+      </x:c>
+      <x:c r="AJ4" s="3" t="n">
+        <x:v>6.4</x:v>
+      </x:c>
+      <x:c r="AK4" s="3" t="n">
+        <x:v>6.9</x:v>
+      </x:c>
+      <x:c r="AL4" s="3" t="n">
+        <x:v>7.7</x:v>
+      </x:c>
+      <x:c r="AM4" s="3" t="n">
+        <x:v>7.8</x:v>
+      </x:c>
+      <x:c r="AN4" s="3" t="n">
+        <x:v>7.9</x:v>
+      </x:c>
+      <x:c r="AO4" s="3" t="n">
+        <x:v>7.4</x:v>
+      </x:c>
+      <x:c r="AP4" s="3" t="n">
+        <x:v>7.8</x:v>
+      </x:c>
+      <x:c r="AQ4" s="3" t="n">
+        <x:v>7.8</x:v>
+      </x:c>
+      <x:c r="AR4" s="3" t="n">
+        <x:v>6.5</x:v>
+      </x:c>
+      <x:c r="AS4" s="3" t="n">
+        <x:v>6.7</x:v>
+      </x:c>
+      <x:c r="AT4" s="3" t="n">
+        <x:v>6.2</x:v>
+      </x:c>
+      <x:c r="AU4" s="3" t="n">
+        <x:v>6.6</x:v>
+      </x:c>
+      <x:c r="AV4" s="3" t="n">
+        <x:v>6.4</x:v>
+      </x:c>
+      <x:c r="AW4" s="3" t="n">
+        <x:v>6.6</x:v>
+      </x:c>
+      <x:c r="AX4" s="3" t="n">
+        <x:v>7.5</x:v>
+      </x:c>
+      <x:c r="AY4" s="3" t="n">
+        <x:v>7.6</x:v>
+      </x:c>
+      <x:c r="AZ4" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="BA4" s="3" t="n">
+        <x:v>7.4</x:v>
+      </x:c>
+      <x:c r="BB4" s="3" t="n">
+        <x:v>7.4</x:v>
+      </x:c>
+      <x:c r="BC4" s="3" t="n">
+        <x:v>7.5</x:v>
+      </x:c>
+      <x:c r="BD4" s="3" t="n">
+        <x:v>6.7</x:v>
+      </x:c>
+      <x:c r="BE4" s="3" t="n">
+        <x:v>6.1</x:v>
+      </x:c>
+      <x:c r="BF4" s="3" t="n">
+        <x:v>6.4</x:v>
+      </x:c>
+      <x:c r="BG4" s="3" t="n">
+        <x:v>6.5</x:v>
+      </x:c>
+      <x:c r="BH4" s="3" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="BI4" s="3" t="n">
+        <x:v>6.2</x:v>
+      </x:c>
+      <x:c r="BJ4" s="3" t="n">
+        <x:v>7.2</x:v>
+      </x:c>
+      <x:c r="BK4" s="3" t="n">
+        <x:v>6.5</x:v>
+      </x:c>
+      <x:c r="BL4" s="3" t="n">
+        <x:v>6.7</x:v>
+      </x:c>
+      <x:c r="BM4" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="BN4" s="3" t="n">
+        <x:v>6.7</x:v>
+      </x:c>
+      <x:c r="BO4" s="3" t="n">
+        <x:v>7.3</x:v>
+      </x:c>
+      <x:c r="BP4" s="3" t="n">
+        <x:v>6.3</x:v>
+      </x:c>
+      <x:c r="BQ4" s="3" t="n">
+        <x:v>6.2</x:v>
+      </x:c>
+      <x:c r="BR4" s="3" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="BS4" s="3" t="n">
+        <x:v>5.9</x:v>
+      </x:c>
+      <x:c r="BT4" s="3" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="BU4" s="3" t="n">
+        <x:v>6.3</x:v>
+      </x:c>
+      <x:c r="BV4" s="3" t="n">
+        <x:v>6.7</x:v>
+      </x:c>
+      <x:c r="BW4" s="3" t="n">
+        <x:v>7.5</x:v>
+      </x:c>
+      <x:c r="BX4" s="3" t="n">
+        <x:v>7.9</x:v>
+      </x:c>
+      <x:c r="BY4" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="BZ4" s="3" t="n">
+        <x:v>7.3</x:v>
+      </x:c>
+      <x:c r="CA4" s="3" t="n">
+        <x:v>7.3</x:v>
+      </x:c>
+      <x:c r="CB4" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="CC4" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="CD4" s="3" t="n">
+        <x:v>6.2</x:v>
+      </x:c>
+      <x:c r="CE4" s="3" t="n">
+        <x:v>6.2</x:v>
+      </x:c>
+      <x:c r="CF4" s="3" t="n">
+        <x:v>7.1</x:v>
+      </x:c>
+      <x:c r="CG4" s="3" t="n">
+        <x:v>6.2</x:v>
+      </x:c>
+      <x:c r="CH4" s="3" t="n">
+        <x:v>7.7</x:v>
+      </x:c>
+      <x:c r="CI4" s="3" t="n">
+        <x:v>8.4</x:v>
+      </x:c>
+      <x:c r="CJ4" s="3" t="n">
+        <x:v>7.4</x:v>
+      </x:c>
+      <x:c r="CK4" s="3" t="n">
+        <x:v>8.5</x:v>
+      </x:c>
+      <x:c r="CL4" s="3" t="n">
+        <x:v>9.2</x:v>
+      </x:c>
+      <x:c r="CM4" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="CN4" s="3" t="n">
         <x:v>9.1</x:v>
       </x:c>
-      <x:c r="H4" s="3" t="n">
-        <x:v>7.2</x:v>
-      </x:c>
-      <x:c r="I4" s="3" t="n">
-        <x:v>7.3</x:v>
-      </x:c>
-      <x:c r="J4" s="3" t="n">
-        <x:v>7.5</x:v>
-      </x:c>
-      <x:c r="K4" s="3" t="n">
-        <x:v>7.3</x:v>
-      </x:c>
-      <x:c r="L4" s="3" t="n">
-        <x:v>7.5</x:v>
-      </x:c>
-      <x:c r="M4" s="3" t="n">
-        <x:v>7.5</x:v>
-      </x:c>
-      <x:c r="N4" s="3" t="n">
+      <x:c r="CO4" s="3" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="CP4" s="3" t="n">
+        <x:v>8.5</x:v>
+      </x:c>
+      <x:c r="CQ4" s="3" t="n">
+        <x:v>8.1</x:v>
+      </x:c>
+      <x:c r="CR4" s="3" t="n">
+        <x:v>7.9</x:v>
+      </x:c>
+      <x:c r="CS4" s="3" t="n">
         <x:v>8.6</x:v>
-      </x:c>
-      <x:c r="O4" s="3" t="n">
-        <x:v>8.5</x:v>
-      </x:c>
-      <x:c r="P4" s="3" t="n">
-        <x:v>8.6</x:v>
-      </x:c>
-      <x:c r="Q4" s="3" t="n">
-        <x:v>8.7</x:v>
-      </x:c>
-      <x:c r="R4" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="S4" s="3" t="n">
-        <x:v>9.2</x:v>
-      </x:c>
-      <x:c r="T4" s="3" t="n">
-        <x:v>7.1</x:v>
-      </x:c>
-      <x:c r="U4" s="3" t="n">
-        <x:v>7.4</x:v>
-      </x:c>
-      <x:c r="V4" s="3" t="n">
-        <x:v>7.2</x:v>
-      </x:c>
-      <x:c r="W4" s="3" t="n">
-        <x:v>7.5</x:v>
-      </x:c>
-      <x:c r="X4" s="3" t="n">
-        <x:v>7.4</x:v>
-      </x:c>
-      <x:c r="Y4" s="3" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Z4" s="3" t="n">
-        <x:v>8.4</x:v>
-      </x:c>
-      <x:c r="AA4" s="3" t="n">
-        <x:v>8.4</x:v>
-      </x:c>
-      <x:c r="AB4" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="AC4" s="3" t="n">
-        <x:v>8.3</x:v>
-      </x:c>
-      <x:c r="AD4" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="AE4" s="3" t="n">
-        <x:v>8.5</x:v>
-      </x:c>
-      <x:c r="AF4" s="3" t="n">
-        <x:v>6.5</x:v>
-      </x:c>
-      <x:c r="AG4" s="3" t="n">
-        <x:v>6.4</x:v>
-      </x:c>
-      <x:c r="AH4" s="3" t="n">
-        <x:v>6.7</x:v>
-      </x:c>
-      <x:c r="AI4" s="3" t="n">
-        <x:v>6.7</x:v>
-      </x:c>
-      <x:c r="AJ4" s="3" t="n">
-        <x:v>6.2</x:v>
-      </x:c>
-      <x:c r="AK4" s="3" t="n">
-        <x:v>6.7</x:v>
-      </x:c>
-      <x:c r="AL4" s="3" t="n">
-        <x:v>7.5</x:v>
-      </x:c>
-      <x:c r="AM4" s="3" t="n">
-        <x:v>7.6</x:v>
-      </x:c>
-      <x:c r="AN4" s="3" t="n">
-        <x:v>7.7</x:v>
-      </x:c>
-      <x:c r="AO4" s="3" t="n">
-        <x:v>7.3</x:v>
-      </x:c>
-      <x:c r="AP4" s="3" t="n">
-        <x:v>7.6</x:v>
-      </x:c>
-      <x:c r="AQ4" s="3" t="n">
-        <x:v>7.6</x:v>
-      </x:c>
-      <x:c r="AR4" s="3" t="n">
-        <x:v>6.3</x:v>
-      </x:c>
-      <x:c r="AS4" s="3" t="n">
-        <x:v>6.6</x:v>
-      </x:c>
-      <x:c r="AT4" s="3" t="n">
-        <x:v>6.1</x:v>
-      </x:c>
-      <x:c r="AU4" s="3" t="n">
-        <x:v>6.4</x:v>
-      </x:c>
-      <x:c r="AV4" s="3" t="n">
-        <x:v>6.2</x:v>
-      </x:c>
-      <x:c r="AW4" s="3" t="n">
-        <x:v>6.5</x:v>
-      </x:c>
-      <x:c r="AX4" s="3" t="n">
-        <x:v>7.3</x:v>
-      </x:c>
-      <x:c r="AY4" s="3" t="n">
-        <x:v>7.4</x:v>
-      </x:c>
-      <x:c r="AZ4" s="3" t="n">
-        <x:v>6.8</x:v>
-      </x:c>
-      <x:c r="BA4" s="3" t="n">
-        <x:v>7.2</x:v>
-      </x:c>
-      <x:c r="BB4" s="3" t="n">
-        <x:v>7.2</x:v>
-      </x:c>
-      <x:c r="BC4" s="3" t="n">
-        <x:v>7.4</x:v>
-      </x:c>
-      <x:c r="BD4" s="3" t="n">
-        <x:v>6.6</x:v>
-      </x:c>
-      <x:c r="BE4" s="3" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="BF4" s="3" t="n">
-        <x:v>6.2</x:v>
-      </x:c>
-      <x:c r="BG4" s="3" t="n">
-        <x:v>6.3</x:v>
-      </x:c>
-      <x:c r="BH4" s="3" t="n">
-        <x:v>5.8</x:v>
-      </x:c>
-      <x:c r="BI4" s="3" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="BJ4" s="3" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="BK4" s="3" t="n">
-        <x:v>6.3</x:v>
-      </x:c>
-      <x:c r="BL4" s="3" t="n">
-        <x:v>6.5</x:v>
-      </x:c>
-      <x:c r="BM4" s="3" t="n">
-        <x:v>6.8</x:v>
-      </x:c>
-      <x:c r="BN4" s="3" t="n">
-        <x:v>6.5</x:v>
-      </x:c>
-      <x:c r="BO4" s="3" t="n">
-        <x:v>7.2</x:v>
-      </x:c>
-      <x:c r="BP4" s="3" t="n">
-        <x:v>6.2</x:v>
-      </x:c>
-      <x:c r="BQ4" s="3" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="BR4" s="3" t="n">
-        <x:v>5.8</x:v>
-      </x:c>
-      <x:c r="BS4" s="3" t="n">
-        <x:v>5.7</x:v>
-      </x:c>
-      <x:c r="BT4" s="3" t="n">
-        <x:v>5.8</x:v>
-      </x:c>
-      <x:c r="BU4" s="3" t="n">
-        <x:v>6.1</x:v>
-      </x:c>
-      <x:c r="BV4" s="3" t="n">
-        <x:v>6.5</x:v>
-      </x:c>
-      <x:c r="BW4" s="3" t="n">
-        <x:v>7.3</x:v>
-      </x:c>
-      <x:c r="BX4" s="3" t="n">
-        <x:v>7.7</x:v>
-      </x:c>
-      <x:c r="BY4" s="3" t="n">
-        <x:v>6.8</x:v>
-      </x:c>
-      <x:c r="BZ4" s="3" t="n">
-        <x:v>7.1</x:v>
-      </x:c>
-      <x:c r="CA4" s="3" t="n">
-        <x:v>7.2</x:v>
-      </x:c>
-      <x:c r="CB4" s="3" t="n">
-        <x:v>6.9</x:v>
-      </x:c>
-      <x:c r="CC4" s="3" t="n">
-        <x:v>6.9</x:v>
-      </x:c>
-      <x:c r="CD4" s="3" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="CE4" s="3" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="CF4" s="3" t="n">
-        <x:v>6.8</x:v>
-      </x:c>
-      <x:c r="CG4" s="3" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="CH4" s="3" t="n">
-        <x:v>7.5</x:v>
-      </x:c>
-      <x:c r="CI4" s="3" t="n">
-        <x:v>8.2</x:v>
-      </x:c>
-      <x:c r="CJ4" s="3" t="n">
-        <x:v>7.1</x:v>
-      </x:c>
-      <x:c r="CK4" s="3" t="n">
-        <x:v>8.2</x:v>
-      </x:c>
-      <x:c r="CL4" s="3" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="CM4" s="3" t="n">
-        <x:v>9.8</x:v>
-      </x:c>
-      <x:c r="CN4" s="3" t="n">
-        <x:v>8.9</x:v>
-      </x:c>
-      <x:c r="CO4" s="3" t="n">
-        <x:v>8.8</x:v>
-      </x:c>
-      <x:c r="CP4" s="3" t="n">
-        <x:v>8.3</x:v>
-      </x:c>
-      <x:c r="CQ4" s="3" t="n">
-        <x:v>7.8</x:v>
-      </x:c>
-      <x:c r="CR4" s="3" t="n">
-        <x:v>7.7</x:v>
-      </x:c>
-      <x:c r="CS4" s="3" t="n">
-        <x:v>8.2</x:v>
       </x:c>
       <x:c r="CT4" s="3" t="n">
         <x:v>9.3</x:v>
@@ -1623,355 +1523,136 @@
       <x:c r="DD4" s="3" t="n">
         <x:v>7.5</x:v>
       </x:c>
-      <x:c r="DE4" s="0" t="s"/>
-      <x:c r="DF4" s="0" t="s"/>
-      <x:c r="DG4" s="0" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:111">
-      <x:c r="A5" s="0" t="s"/>
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="C5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
-      <x:c r="F5" s="0" t="s"/>
-      <x:c r="G5" s="0" t="s"/>
-      <x:c r="H5" s="0" t="s"/>
-      <x:c r="I5" s="0" t="s"/>
-      <x:c r="J5" s="0" t="s"/>
-      <x:c r="K5" s="0" t="s"/>
-      <x:c r="L5" s="0" t="s"/>
-      <x:c r="M5" s="0" t="s"/>
-      <x:c r="N5" s="0" t="s"/>
-      <x:c r="O5" s="0" t="s"/>
-      <x:c r="P5" s="0" t="s"/>
-      <x:c r="Q5" s="0" t="s"/>
-      <x:c r="R5" s="0" t="s"/>
-      <x:c r="S5" s="0" t="s"/>
-      <x:c r="T5" s="0" t="s"/>
-      <x:c r="U5" s="0" t="s"/>
-      <x:c r="V5" s="0" t="s"/>
-      <x:c r="W5" s="0" t="s"/>
-      <x:c r="X5" s="0" t="s"/>
-      <x:c r="Y5" s="0" t="s"/>
-      <x:c r="Z5" s="0" t="s"/>
-      <x:c r="AA5" s="0" t="s"/>
-      <x:c r="AB5" s="0" t="s"/>
-      <x:c r="AC5" s="0" t="s"/>
-      <x:c r="AD5" s="0" t="s"/>
-      <x:c r="AE5" s="0" t="s"/>
-      <x:c r="AF5" s="0" t="s"/>
-      <x:c r="AG5" s="0" t="s"/>
-      <x:c r="AH5" s="0" t="s"/>
-      <x:c r="AI5" s="0" t="s"/>
-      <x:c r="AJ5" s="0" t="s"/>
-      <x:c r="AK5" s="0" t="s"/>
-      <x:c r="AL5" s="0" t="s"/>
-      <x:c r="AM5" s="0" t="s"/>
-      <x:c r="AN5" s="0" t="s"/>
-      <x:c r="AO5" s="0" t="s"/>
-      <x:c r="AP5" s="0" t="s"/>
-      <x:c r="AQ5" s="0" t="s"/>
-      <x:c r="AR5" s="0" t="s"/>
-      <x:c r="AS5" s="0" t="s"/>
-      <x:c r="AT5" s="0" t="s"/>
-      <x:c r="AU5" s="0" t="s"/>
-      <x:c r="AV5" s="0" t="s"/>
-      <x:c r="AW5" s="0" t="s"/>
-      <x:c r="AX5" s="0" t="s"/>
-      <x:c r="AY5" s="0" t="s"/>
-      <x:c r="AZ5" s="0" t="s"/>
-      <x:c r="BA5" s="0" t="s"/>
-      <x:c r="BB5" s="0" t="s"/>
-      <x:c r="BC5" s="0" t="s"/>
-      <x:c r="BD5" s="0" t="s"/>
-      <x:c r="BE5" s="0" t="s"/>
-      <x:c r="BF5" s="0" t="s"/>
-      <x:c r="BG5" s="0" t="s"/>
-      <x:c r="BH5" s="0" t="s"/>
-      <x:c r="BI5" s="0" t="s"/>
-      <x:c r="BJ5" s="0" t="s"/>
-      <x:c r="BK5" s="0" t="s"/>
-      <x:c r="BL5" s="0" t="s"/>
-      <x:c r="BM5" s="0" t="s"/>
-      <x:c r="BN5" s="0" t="s"/>
-      <x:c r="BO5" s="0" t="s"/>
-      <x:c r="BP5" s="0" t="s"/>
-      <x:c r="BQ5" s="0" t="s"/>
-      <x:c r="BR5" s="0" t="s"/>
-      <x:c r="BS5" s="0" t="s"/>
-      <x:c r="BT5" s="0" t="s"/>
-      <x:c r="BU5" s="0" t="s"/>
-      <x:c r="BV5" s="0" t="s"/>
-      <x:c r="BW5" s="0" t="s"/>
-      <x:c r="BX5" s="0" t="s"/>
-      <x:c r="BY5" s="0" t="s"/>
-      <x:c r="BZ5" s="0" t="s"/>
-      <x:c r="CA5" s="0" t="s"/>
-      <x:c r="CB5" s="0" t="s"/>
-      <x:c r="CC5" s="0" t="s"/>
-      <x:c r="CD5" s="0" t="s"/>
-      <x:c r="CE5" s="0" t="s"/>
-      <x:c r="CF5" s="0" t="s"/>
-      <x:c r="CG5" s="0" t="s"/>
-      <x:c r="CH5" s="0" t="s"/>
-      <x:c r="CI5" s="0" t="s"/>
-      <x:c r="CJ5" s="0" t="s"/>
-      <x:c r="CK5" s="0" t="s"/>
-      <x:c r="CL5" s="0" t="s"/>
-      <x:c r="CM5" s="0" t="s"/>
-      <x:c r="CN5" s="0" t="s"/>
-      <x:c r="CO5" s="0" t="s"/>
-      <x:c r="CP5" s="0" t="s"/>
-      <x:c r="CQ5" s="0" t="s"/>
-      <x:c r="CR5" s="0" t="s"/>
-      <x:c r="CS5" s="0" t="s"/>
-      <x:c r="CT5" s="0" t="s"/>
-      <x:c r="CU5" s="0" t="s"/>
-      <x:c r="CV5" s="0" t="s"/>
-      <x:c r="CW5" s="0" t="s"/>
-      <x:c r="CX5" s="0" t="s"/>
-      <x:c r="CY5" s="0" t="s"/>
-      <x:c r="CZ5" s="0" t="s"/>
-      <x:c r="DA5" s="0" t="s"/>
-      <x:c r="DB5" s="0" t="s"/>
-      <x:c r="DC5" s="0" t="s"/>
-      <x:c r="DD5" s="0" t="s"/>
-      <x:c r="DE5" s="0" t="s"/>
-      <x:c r="DF5" s="0" t="s"/>
-      <x:c r="DG5" s="0" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:111">
+      <x:c r="DE4" s="3" t="n">
+        <x:v>7.3</x:v>
+      </x:c>
+      <x:c r="DF4" s="3" t="n">
+        <x:v>8.3</x:v>
+      </x:c>
+      <x:c r="DG4" s="3" t="n">
+        <x:v>7.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:114">
       <x:c r="A6" s="4" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s"/>
-      <x:c r="G6" s="0" t="s"/>
-      <x:c r="H6" s="0" t="s"/>
-      <x:c r="I6" s="0" t="s"/>
-      <x:c r="J6" s="0" t="s"/>
-      <x:c r="K6" s="0" t="s"/>
-      <x:c r="L6" s="0" t="s"/>
-      <x:c r="M6" s="0" t="s"/>
-      <x:c r="N6" s="0" t="s"/>
-      <x:c r="O6" s="0" t="s"/>
-      <x:c r="P6" s="0" t="s"/>
-      <x:c r="Q6" s="0" t="s"/>
-      <x:c r="R6" s="0" t="s"/>
-      <x:c r="S6" s="0" t="s"/>
-      <x:c r="T6" s="0" t="s"/>
-      <x:c r="U6" s="0" t="s"/>
-      <x:c r="V6" s="0" t="s"/>
-      <x:c r="W6" s="0" t="s"/>
-      <x:c r="X6" s="0" t="s"/>
-      <x:c r="Y6" s="0" t="s"/>
-      <x:c r="Z6" s="0" t="s"/>
-      <x:c r="AA6" s="0" t="s"/>
-      <x:c r="AB6" s="0" t="s"/>
-      <x:c r="AC6" s="0" t="s"/>
-      <x:c r="AD6" s="0" t="s"/>
-      <x:c r="AE6" s="0" t="s"/>
-      <x:c r="AF6" s="0" t="s"/>
-      <x:c r="AG6" s="0" t="s"/>
-      <x:c r="AH6" s="0" t="s"/>
-      <x:c r="AI6" s="0" t="s"/>
-      <x:c r="AJ6" s="0" t="s"/>
-      <x:c r="AK6" s="0" t="s"/>
-      <x:c r="AL6" s="0" t="s"/>
-      <x:c r="AM6" s="0" t="s"/>
-      <x:c r="AN6" s="0" t="s"/>
-      <x:c r="AO6" s="0" t="s"/>
-      <x:c r="AP6" s="0" t="s"/>
-      <x:c r="AQ6" s="0" t="s"/>
-      <x:c r="AR6" s="0" t="s"/>
-      <x:c r="AS6" s="0" t="s"/>
-      <x:c r="AT6" s="0" t="s"/>
-      <x:c r="AU6" s="0" t="s"/>
-      <x:c r="AV6" s="0" t="s"/>
-      <x:c r="AW6" s="0" t="s"/>
-      <x:c r="AX6" s="0" t="s"/>
-      <x:c r="AY6" s="0" t="s"/>
-      <x:c r="AZ6" s="0" t="s"/>
-      <x:c r="BA6" s="0" t="s"/>
-      <x:c r="BB6" s="0" t="s"/>
-      <x:c r="BC6" s="0" t="s"/>
-      <x:c r="BD6" s="0" t="s"/>
-      <x:c r="BE6" s="0" t="s"/>
-      <x:c r="BF6" s="0" t="s"/>
-      <x:c r="BG6" s="0" t="s"/>
-      <x:c r="BH6" s="0" t="s"/>
-      <x:c r="BI6" s="0" t="s"/>
-      <x:c r="BJ6" s="0" t="s"/>
-      <x:c r="BK6" s="0" t="s"/>
-      <x:c r="BL6" s="0" t="s"/>
-      <x:c r="BM6" s="0" t="s"/>
-      <x:c r="BN6" s="0" t="s"/>
-      <x:c r="BO6" s="0" t="s"/>
-      <x:c r="BP6" s="0" t="s"/>
-      <x:c r="BQ6" s="0" t="s"/>
-      <x:c r="BR6" s="0" t="s"/>
-      <x:c r="BS6" s="0" t="s"/>
-      <x:c r="BT6" s="0" t="s"/>
-      <x:c r="BU6" s="0" t="s"/>
-      <x:c r="BV6" s="0" t="s"/>
-      <x:c r="BW6" s="0" t="s"/>
-      <x:c r="BX6" s="0" t="s"/>
-      <x:c r="BY6" s="0" t="s"/>
-      <x:c r="BZ6" s="0" t="s"/>
-      <x:c r="CA6" s="0" t="s"/>
-      <x:c r="CB6" s="0" t="s"/>
-      <x:c r="CC6" s="0" t="s"/>
-      <x:c r="CD6" s="0" t="s"/>
-      <x:c r="CE6" s="0" t="s"/>
-      <x:c r="CF6" s="0" t="s"/>
-      <x:c r="CG6" s="0" t="s"/>
-      <x:c r="CH6" s="0" t="s"/>
-      <x:c r="CI6" s="0" t="s"/>
-      <x:c r="CJ6" s="0" t="s"/>
-      <x:c r="CK6" s="0" t="s"/>
-      <x:c r="CL6" s="0" t="s"/>
-      <x:c r="CM6" s="0" t="s"/>
-      <x:c r="CN6" s="0" t="s"/>
-      <x:c r="CO6" s="0" t="s"/>
-      <x:c r="CP6" s="0" t="s"/>
-      <x:c r="CQ6" s="0" t="s"/>
-      <x:c r="CR6" s="0" t="s"/>
-      <x:c r="CS6" s="0" t="s"/>
-      <x:c r="CT6" s="0" t="s"/>
-      <x:c r="CU6" s="0" t="s"/>
-      <x:c r="CV6" s="0" t="s"/>
-      <x:c r="CW6" s="0" t="s"/>
-      <x:c r="CX6" s="0" t="s"/>
-      <x:c r="CY6" s="0" t="s"/>
-      <x:c r="CZ6" s="0" t="s"/>
-      <x:c r="DA6" s="0" t="s"/>
-      <x:c r="DB6" s="0" t="s"/>
-      <x:c r="DC6" s="0" t="s"/>
-      <x:c r="DD6" s="0" t="s"/>
-      <x:c r="DE6" s="0" t="s"/>
-      <x:c r="DF6" s="0" t="s"/>
-      <x:c r="DG6" s="0" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:111">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:114">
       <x:c r="A7" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:111">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:114">
       <x:c r="A8" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:111">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:114">
       <x:c r="A9" s="4" t="s">
-        <x:v>112</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:111">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:114">
       <x:c r="A12" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:111">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:114">
       <x:c r="A13" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:111">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:114">
       <x:c r="A15" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:111">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:114">
       <x:c r="A16" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:111">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:114">
       <x:c r="A18" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:111">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:114">
       <x:c r="A19" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:111">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:114">
       <x:c r="A20" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:111">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:114">
       <x:c r="A21" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:111">
-      <x:c r="A22" s="0" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:111">
-      <x:c r="A23" s="0" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:111">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:114">
       <x:c r="A26" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:111">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:114">
       <x:c r="A27" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:111">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:114">
       <x:c r="A29" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:111">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:114">
       <x:c r="A30" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:111">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:114">
       <x:c r="A32" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:111">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:114">
       <x:c r="A33" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:111">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:114">
       <x:c r="A39" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:111">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:114">
       <x:c r="A41" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:111">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:114">
       <x:c r="A42" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:111">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:114">
       <x:c r="A44" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:111">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:114">
       <x:c r="A45" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A6:DG6"/>
+    <x:mergeCell ref="A9:DG9"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
